--- a/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
+++ b/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -166,15 +168,59 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAST GUARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-35 JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasury</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -210,10 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3537,4 +3585,2297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>17166093</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>181839438</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>336287568</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>335951019</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>779040733</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>1076829777</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>866171399</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1190395754.2188</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1344654664.7045</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>2020510149.5607</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>2174728257.5092</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>2448957344.883</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>2148125078.5803</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>3264427355.2181</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>3615611415.7761</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>2675119474.9923</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>3303227141.7611</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>2549532292.6947</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>2571929307.5306</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>2694377011.3669</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>2589783559.8432</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>3395120377.9955</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>3375890334.7613</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>3168670514.8099</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>3321923421.7816</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>3255304602.42</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="n">
+        <v>5352275</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>7776271</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>5518175</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
+        <v>400113.5859</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1103619</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>-1254352.7656</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>10232485</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>44642807.5</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>2889979.8594</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>65613259.3326</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>13253871.2813</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>24650795.3703</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>14306887.8208</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>10536083.2188</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>15449741.8509</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>4474240.2774</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>-3093599.3134</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>-320988.5469</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="n">
+        <v>79283841</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>158096818</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>123413399</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>248930760</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>439779763</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>364809785</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>657326580</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1107287058.8469</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>928505561.8912</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>996711382.1719</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>946012481.3308</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1202298428.7138</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>3039424831.9256</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>3150128035.0244</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>3359835428.3552</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>2910861191.5919</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>2985903096.2658</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>2658476491.387</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>2031128973.811</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1959318206.1071</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>2316789392.0686</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>2082915750.2</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>664484375.0717</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>693810922.7553</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>234238593.75</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="3" t="str">
+        <f>Sum(AK2:AK4)</f>
+      </c>
+      <c r="AL5" s="3" t="str">
+        <f>Sum(AL2:AL4)</f>
+      </c>
+      <c r="AM5" s="3" t="str">
+        <f>Sum(AM2:AM4)</f>
+      </c>
+      <c r="AN5" s="3" t="str">
+        <f>Sum(AN2:AN4)</f>
+      </c>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>29459650.9413758</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>305703624.668505</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>551978262.775002</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>542885105.931939</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>1235192910.99127</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>1666649053.938</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>1301015660.55212</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1731755567.38532</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>1903757770.35226</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>2802450560.81185</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>2985817998.4481</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>3333454761.15407</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>2866436691.19041</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>4278383588.19164</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>4654198938.868</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>3381854125.08872</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>4133096937.14721</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>3164748902.81016</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>3139554106.30571</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>3217595398.79992</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>3036546722.50498</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>3929480842.70839</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>3777222118.82408</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>3313626400.64779</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>3321923421.7816</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>3170629801.002</v>
+      </c>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="n">
+        <v>8486195.7246025</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>12035620.6543827</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>8288465.88672363</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="n">
+        <v>566479.534243855</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>1530721.18254148</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>-1722177.95533739</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>13928182.9113758</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>59570917.3044631</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>3787629.82147454</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>84460725.1290881</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>16755385.9500755</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>30843814.9938761</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>17759221.0395771</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>12861396.7876598</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>18449911.8283685</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>5246090.77789548</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>-3580503.1585355</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>-359148.230247713</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="n">
+        <v>133289883.855346</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>259498165.421018</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>199431739.748751</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>394687334.121294</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>680663315.224266</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>547955339.965746</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>956260941.347511</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>1567693473.73925</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1287838585.32196</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1368446275.46959</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1287686703.31985</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1604335038.11775</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>3983493551.37781</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>4055005052.24006</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>4247463864.40738</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>3642156884.499</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>3706418457.56618</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>3245202253.65951</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>2425551885.6242</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>2297319887.7898</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>2681430558.90657</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>2330536440.20661</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>694882272.474968</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>693810922.7553</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>228145736.450112</v>
+      </c>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1127793</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>207888971</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>365464460</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>377935078</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>405381778</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>487275573</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>558452996</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>662973204</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>692498125.1978</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>916210803.7971</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>1309490875.2394</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1165868160.5527</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1109340831.8532</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>3861730200.4073</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>4053202367.5623</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>3749250725.6637</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>3395172894.6922</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>3153782323.2376</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>2175509335.3682</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>1477560048.7244</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>1353137321.8744</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>1436834876.1808</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>1390434567.7127</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>65654799.1289</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>186895919.2877</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>61783386.16</v>
+      </c>
+      <c r="AO2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="n">
+        <v>57606904</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>49730914</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>305929119</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>766822464</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>866185532.13</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>862439853.87</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>858788565.5782</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1156892509.1462</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1350458517.9082</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1226547271.8394</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1053171259.02</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1197051872.98</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>847947692.38</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>624382237.0284</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>605023324.5675</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>570374012.71</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>709634477.25</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>630789803.1492</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>530317461.85</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>456442759.4</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>319848962.15</v>
+      </c>
+      <c r="AO3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="n">
+        <v>2631973.0823</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2145565.7727</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1834156.39</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1997579.77</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1319053.53</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>119624</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>-215025</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>7085</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>28554476</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>607952</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>96788182</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>85726588.7188</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>207338474.9382</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>39170618.8718</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>8456729.5628</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="n">
+        <v>46503363.95</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>311870020.8873</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>486428675.39</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>966871451.4004</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>965007999.5683</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>621827739.75</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>1096875089.9369</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>823630809.4617</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>831560132.3671</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>954457231.5314</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>387471513.93</v>
+      </c>
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4" t="n">
+        <v>293949125.2604</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>331202097.24</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>426319877.96</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>761058730.66</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>665336014</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>857486313</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>881286731.84</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>1125536345</v>
+      </c>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>16038300</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>53234308</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>128919926</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>77973340</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>627941990</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>979503334</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>628308364</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>850265535.2188</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>991786827.8399</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>1070733768.2666</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>911664540.1485</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1186563781.502</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1092105007.4038</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>1026571674.8666</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1491857831.4038</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1138508787.7051</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>1319532657.6791</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1042502727.6991</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>1178125270.2075</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>1301438099.1274</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>1652010522.9923</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>1760025555.1046</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>2012720767.9732</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>1623959948.6748</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>1591369838.6751</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>1685200962.37</v>
+      </c>
+      <c r="AO7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="n">
+        <v>626468.0996</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>201044.2582</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>863428.9388</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>-15988644.4396</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>-4588218.2536</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>57690887.8682</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>57747659.5576</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>59455584.76</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>14992058.4847</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>19295883.0746</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>2104462.8715</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>60724157.8012</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>-70093469.059</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>-55612558.3816</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>-64426865.8824</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>-75823765.1392</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>-54718136.1973</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>-90297973.44</v>
+      </c>
+      <c r="AO8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="n">
+        <v>3456000</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="4" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>1935465.92775228</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>349497406.405896</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>599868853.126335</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>610729878.022562</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>642745208.588004</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>754174327.357541</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>838813304.52271</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>964475497.31705</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>980436629.1247</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>1270785737.6917</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>1797880452.69229</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>1586948330.80403</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>1480293347.51833</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>5061213289.07402</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>5217488272.05659</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>4739758037.39164</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>4248142222.71622</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>3914807894.6743</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>2655644246.19411</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>1764485962.49503</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>1586566832.6683</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>1662979361.99281</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>1555731876.08103</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>68658282.615983</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>186895919.2877</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>60176318.1301325</v>
+      </c>
+      <c r="AO14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="n">
+        <v>89160324.2244824</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>74697338.1968833</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>445057413.197188</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>1085664790.10541</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>1201400612.02494</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>1184096647.18908</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>1168959859.07345</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>1543745831.67739</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>1769921315.69919</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>1578874042.20429</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>1331406540.91792</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>1497787229.72778</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>1052562282.41913</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>762183396.886983</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>722512201.18131</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>668769145.71248</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>821324363.563686</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>705779205.044087</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>554577679.849465</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>456442759.4</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>311529265.328489</v>
+      </c>
+      <c r="AO15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="n">
+        <v>3582570.85234837</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>2863021.57893627</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>2403859.4654616</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>2571386.2959033</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>1667531.73581385</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>149677.138988905</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>-266911.752707203</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
+        <v>10641.8844649611</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>41540279.8703879</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>860736.495682737</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>134245351.345963</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>117699299.05418</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>282223546.235832</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>52268883.348715</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>11083454.7791128</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4" t="n">
+        <v>58788997.9027057</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>390221130.064376</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>603806675.109349</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>1180259980.9512</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>1152401941.56825</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>729099147.27193</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>1269513057.82443</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>921545489.558591</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>869601176.72667</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>954457231.5314</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>377392864.616272</v>
+      </c>
+      <c r="AO17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4" t="n">
+        <v>358823697.2743</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>395517902.526816</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>499864254.384462</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>880842317.605858</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>744432330.237038</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>896713391.837585</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>881286731.84</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>1096259647.99574</v>
+      </c>
+      <c r="AO18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>27524185.0136235</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>89496102.1179552</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>211607575.069685</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>126002192.437961</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>995621232.249163</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>1516013338.23462</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>943738181.800529</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>1236943318.3482</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>1404168616.36974</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>1485109317.57078</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>1251680242.40416</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>1615118652.48506</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>1457294035.18902</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>1345432729.21392</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>1920395290.70108</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>1439289226.57233</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>1651038863.47082</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>1294064551.80656</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>1438137517.61856</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>1554163066.97586</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>1936998603.6361</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>2037037256.84801</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>2251996554.95993</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>1698250586.28612</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>1591369838.6751</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>1641366644.45947</v>
+      </c>
+      <c r="AO19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="n">
+        <v>886951.530230558</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>278848.682973996</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>1185454.62263994</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>-21763312.0654172</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>-6122472.69977439</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>75610121.1592194</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>74335724.9792842</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>75163040.925769</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>18758513.5219039</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>23952089.1592826</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>2568917.82773354</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>72516121.5052154</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>-82185282.6006036</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>-64365459.3783563</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>-72086045.0802295</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>-79292444.1930637</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>-54718136.1973</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>-87949203.0779896</v>
+      </c>
+      <c r="AO20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="n">
+        <v>5584775.22016619</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
+++ b/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
@@ -216,11 +216,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -256,12 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4507,85 +4509,85 @@
       <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>1127793</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="5" t="n">
         <v>207888971</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>365464460</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>377935078</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>405381778</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>487275573</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>558452996</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>662973204</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>692498125.1978</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>916210803.7971</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>1309490875.2394</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1165868160.5527</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>1109340831.8532</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>3861730200.4073</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>4053202367.5623</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>3749250725.6637</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>3395172894.6922</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>3153782323.2376</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>2175509335.3682</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>1477560048.7244</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>1353137321.8744</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>1436834876.1808</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="5" t="n">
         <v>1390434567.7127</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="5" t="n">
         <v>65654799.1289</v>
       </c>
-      <c r="AM2" s="4" t="n">
+      <c r="AM2" s="5" t="n">
         <v>186895919.2877</v>
       </c>
-      <c r="AN2" s="4" t="n">
+      <c r="AN2" s="5" t="n">
         <v>61783386.16</v>
       </c>
-      <c r="AO2" s="4"/>
+      <c r="AO2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4600,75 +4602,75 @@
       <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="n">
         <v>57606904</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>49730914</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>305929119</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>766822464</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>866185532.13</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>862439853.87</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>858788565.5782</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>1156892509.1462</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>1350458517.9082</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>1226547271.8394</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>1053171259.02</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>1197051872.98</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>847947692.38</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>624382237.0284</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>605023324.5675</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="5" t="n">
         <v>570374012.71</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>709634477.25</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="5" t="n">
         <v>630789803.1492</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="5" t="n">
         <v>530317461.85</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="5" t="n">
         <v>456442759.4</v>
       </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AN3" s="5" t="n">
         <v>319848962.15</v>
       </c>
-      <c r="AO3" s="4"/>
+      <c r="AO3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4683,47 +4685,47 @@
       <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="n">
         <v>2631973.0823</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>2145565.7727</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>1834156.39</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="5" t="n">
         <v>1997579.77</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="5" t="n">
         <v>1319053.53</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="5" t="n">
         <v>119624</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>-215025</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4738,71 +4740,71 @@
       <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
         <v>7085</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>28554476</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>607952</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>96788182</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>85726588.7188</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="5" t="n">
         <v>207338474.9382</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>39170618.8718</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>8456729.5628</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="n">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="n">
         <v>46503363.95</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="5" t="n">
         <v>311870020.8873</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="5" t="n">
         <v>486428675.39</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="5" t="n">
         <v>966871451.4004</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="5" t="n">
         <v>965007999.5683</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="5" t="n">
         <v>621827739.75</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="5" t="n">
         <v>1096875089.9369</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AK5" s="5" t="n">
         <v>823630809.4617</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="5" t="n">
         <v>831560132.3671</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="AM5" s="5" t="n">
         <v>954457231.5314</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="AN5" s="5" t="n">
         <v>387471513.93</v>
       </c>
-      <c r="AO5" s="4"/>
+      <c r="AO5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4817,49 +4819,49 @@
       <c r="N6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5" t="n">
         <v>293949125.2604</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="5" t="n">
         <v>331202097.24</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="5" t="n">
         <v>426319877.96</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="5" t="n">
         <v>761058730.66</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="5" t="n">
         <v>665336014</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="5" t="n">
         <v>857486313</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="AM6" s="5" t="n">
         <v>881286731.84</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="AN6" s="5" t="n">
         <v>1125536345</v>
       </c>
-      <c r="AO6" s="4"/>
+      <c r="AO6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4874,85 +4876,85 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>16038300</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>53234308</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="5" t="n">
         <v>128919926</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>77973340</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="5" t="n">
         <v>627941990</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>979503334</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <v>628308364</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="5" t="n">
         <v>850265535.2188</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>991786827.8399</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="5" t="n">
         <v>1070733768.2666</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>911664540.1485</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="5" t="n">
         <v>1186563781.502</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <v>1092105007.4038</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="5" t="n">
         <v>1026571674.8666</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="5" t="n">
         <v>1491857831.4038</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="5" t="n">
         <v>1138508787.7051</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="5" t="n">
         <v>1319532657.6791</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="5" t="n">
         <v>1042502727.6991</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="5" t="n">
         <v>1178125270.2075</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="5" t="n">
         <v>1301438099.1274</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="5" t="n">
         <v>1652010522.9923</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>1760025555.1046</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="5" t="n">
         <v>2012720767.9732</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="5" t="n">
         <v>1623959948.6748</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="5" t="n">
         <v>1591369838.6751</v>
       </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AN7" s="5" t="n">
         <v>1685200962.37</v>
       </c>
-      <c r="AO7" s="4"/>
+      <c r="AO7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4967,69 +4969,69 @@
       <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4" t="n">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="n">
         <v>626468.0996</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="5" t="n">
         <v>201044.2582</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="5" t="n">
         <v>863428.9388</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="5" t="n">
         <v>-15988644.4396</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="5" t="n">
         <v>-4588218.2536</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="5" t="n">
         <v>57690887.8682</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="5" t="n">
         <v>57747659.5576</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="5" t="n">
         <v>59455584.76</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="5" t="n">
         <v>14992058.4847</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="5" t="n">
         <v>19295883.0746</v>
       </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AG8" s="5" t="n">
         <v>2104462.8715</v>
       </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AH8" s="5" t="n">
         <v>60724157.8012</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="5" t="n">
         <v>-70093469.059</v>
       </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AJ8" s="5" t="n">
         <v>-55612558.3816</v>
       </c>
-      <c r="AK8" s="4" t="n">
+      <c r="AK8" s="5" t="n">
         <v>-64426865.8824</v>
       </c>
-      <c r="AL8" s="4" t="n">
+      <c r="AL8" s="5" t="n">
         <v>-75823765.1392</v>
       </c>
-      <c r="AM8" s="4" t="n">
+      <c r="AM8" s="5" t="n">
         <v>-54718136.1973</v>
       </c>
-      <c r="AN8" s="4" t="n">
+      <c r="AN8" s="5" t="n">
         <v>-90297973.44</v>
       </c>
-      <c r="AO8" s="4"/>
+      <c r="AO8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5044,35 +5046,35 @@
       <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="n">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5" t="n">
         <v>3456000</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5087,85 +5089,85 @@
       <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="5" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="5" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="5" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="5" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="5" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="5" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="5" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="5" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="5" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="5" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="5" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="5" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="5" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="5" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="5" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="5" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="5" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="5" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="4" t="str">
+      <c r="AG10" s="5" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="4" t="str">
+      <c r="AH10" s="5" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="4" t="str">
+      <c r="AI10" s="5" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="4" t="str">
+      <c r="AJ10" s="5" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="4" t="str">
+      <c r="AK10" s="5" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="4" t="str">
+      <c r="AL10" s="5" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="4" t="str">
+      <c r="AM10" s="5" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="4" t="str">
+      <c r="AN10" s="5" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="4"/>
+      <c r="AO10" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -5272,85 +5274,85 @@
       <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>1935465.92775228</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="5" t="n">
         <v>349497406.405896</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="5" t="n">
         <v>599868853.126335</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="5" t="n">
         <v>610729878.022562</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="5" t="n">
         <v>642745208.588004</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <v>754174327.357541</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <v>838813304.52271</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="5" t="n">
         <v>964475497.31705</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="5" t="n">
         <v>980436629.1247</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>1270785737.6917</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>1797880452.69229</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="5" t="n">
         <v>1586948330.80403</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <v>1480293347.51833</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>5061213289.07402</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="5" t="n">
         <v>5217488272.05659</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="5" t="n">
         <v>4739758037.39164</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="5" t="n">
         <v>4248142222.71622</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="5" t="n">
         <v>3914807894.6743</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="5" t="n">
         <v>2655644246.19411</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="5" t="n">
         <v>1764485962.49503</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="5" t="n">
         <v>1586566832.6683</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="5" t="n">
         <v>1662979361.99281</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="5" t="n">
         <v>1555731876.08103</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="5" t="n">
         <v>68658282.615983</v>
       </c>
-      <c r="AM14" s="4" t="n">
+      <c r="AM14" s="5" t="n">
         <v>186895919.2877</v>
       </c>
-      <c r="AN14" s="4" t="n">
+      <c r="AN14" s="5" t="n">
         <v>60176318.1301325</v>
       </c>
-      <c r="AO14" s="4"/>
+      <c r="AO14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5365,75 +5367,75 @@
       <c r="N15" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="n">
         <v>89160324.2244824</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="5" t="n">
         <v>74697338.1968833</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="5" t="n">
         <v>445057413.197188</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="5" t="n">
         <v>1085664790.10541</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="5" t="n">
         <v>1201400612.02494</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="5" t="n">
         <v>1184096647.18908</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="5" t="n">
         <v>1168959859.07345</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <v>1543745831.67739</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="5" t="n">
         <v>1769921315.69919</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="5" t="n">
         <v>1578874042.20429</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="5" t="n">
         <v>1331406540.91792</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>1497787229.72778</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="5" t="n">
         <v>1052562282.41913</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="5" t="n">
         <v>762183396.886983</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="5" t="n">
         <v>722512201.18131</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="5" t="n">
         <v>668769145.71248</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="5" t="n">
         <v>821324363.563686</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="5" t="n">
         <v>705779205.044087</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="5" t="n">
         <v>554577679.849465</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="5" t="n">
         <v>456442759.4</v>
       </c>
-      <c r="AN15" s="4" t="n">
+      <c r="AN15" s="5" t="n">
         <v>311529265.328489</v>
       </c>
-      <c r="AO15" s="4"/>
+      <c r="AO15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5448,47 +5450,47 @@
       <c r="N16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5" t="n">
         <v>3582570.85234837</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="5" t="n">
         <v>2863021.57893627</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="5" t="n">
         <v>2403859.4654616</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="5" t="n">
         <v>2571386.2959033</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="5" t="n">
         <v>1667531.73581385</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="5" t="n">
         <v>149677.138988905</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="5" t="n">
         <v>-266911.752707203</v>
       </c>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5503,71 +5505,71 @@
       <c r="N17" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="n">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="n">
         <v>10641.8844649611</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="5" t="n">
         <v>41540279.8703879</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="5" t="n">
         <v>860736.495682737</v>
       </c>
-      <c r="X17" s="4" t="n">
+      <c r="X17" s="5" t="n">
         <v>134245351.345963</v>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="5" t="n">
         <v>117699299.05418</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="5" t="n">
         <v>282223546.235832</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="5" t="n">
         <v>52268883.348715</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="5" t="n">
         <v>11083454.7791128</v>
       </c>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4" t="n">
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5" t="n">
         <v>58788997.9027057</v>
       </c>
-      <c r="AE17" s="4" t="n">
+      <c r="AE17" s="5" t="n">
         <v>390221130.064376</v>
       </c>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="5" t="n">
         <v>603806675.109349</v>
       </c>
-      <c r="AG17" s="4" t="n">
+      <c r="AG17" s="5" t="n">
         <v>1180259980.9512</v>
       </c>
-      <c r="AH17" s="4" t="n">
+      <c r="AH17" s="5" t="n">
         <v>1152401941.56825</v>
       </c>
-      <c r="AI17" s="4" t="n">
+      <c r="AI17" s="5" t="n">
         <v>729099147.27193</v>
       </c>
-      <c r="AJ17" s="4" t="n">
+      <c r="AJ17" s="5" t="n">
         <v>1269513057.82443</v>
       </c>
-      <c r="AK17" s="4" t="n">
+      <c r="AK17" s="5" t="n">
         <v>921545489.558591</v>
       </c>
-      <c r="AL17" s="4" t="n">
+      <c r="AL17" s="5" t="n">
         <v>869601176.72667</v>
       </c>
-      <c r="AM17" s="4" t="n">
+      <c r="AM17" s="5" t="n">
         <v>954457231.5314</v>
       </c>
-      <c r="AN17" s="4" t="n">
+      <c r="AN17" s="5" t="n">
         <v>377392864.616272</v>
       </c>
-      <c r="AO17" s="4"/>
+      <c r="AO17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5582,49 +5584,49 @@
       <c r="N18" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4" t="n">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5" t="n">
         <v>358823697.2743</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="5" t="n">
         <v>395517902.526816</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="5" t="n">
         <v>499864254.384462</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="5" t="n">
         <v>880842317.605858</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="5" t="n">
         <v>744432330.237038</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="5" t="n">
         <v>896713391.837585</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="5" t="n">
         <v>881286731.84</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="5" t="n">
         <v>1096259647.99574</v>
       </c>
-      <c r="AO18" s="4"/>
+      <c r="AO18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5639,85 +5641,85 @@
       <c r="N19" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="5" t="n">
         <v>27524185.0136235</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="5" t="n">
         <v>89496102.1179552</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="5" t="n">
         <v>211607575.069685</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="5" t="n">
         <v>126002192.437961</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="5" t="n">
         <v>995621232.249163</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="5" t="n">
         <v>1516013338.23462</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="5" t="n">
         <v>943738181.800529</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="5" t="n">
         <v>1236943318.3482</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="5" t="n">
         <v>1404168616.36974</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="5" t="n">
         <v>1485109317.57078</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="5" t="n">
         <v>1251680242.40416</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="5" t="n">
         <v>1615118652.48506</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="5" t="n">
         <v>1457294035.18902</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="5" t="n">
         <v>1345432729.21392</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="5" t="n">
         <v>1920395290.70108</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="5" t="n">
         <v>1439289226.57233</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="5" t="n">
         <v>1651038863.47082</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="5" t="n">
         <v>1294064551.80656</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="5" t="n">
         <v>1438137517.61856</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="5" t="n">
         <v>1554163066.97586</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="5" t="n">
         <v>1936998603.6361</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="5" t="n">
         <v>2037037256.84801</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="5" t="n">
         <v>2251996554.95993</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="5" t="n">
         <v>1698250586.28612</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="5" t="n">
         <v>1591369838.6751</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="5" t="n">
         <v>1641366644.45947</v>
       </c>
-      <c r="AO19" s="4"/>
+      <c r="AO19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5732,69 +5734,69 @@
       <c r="N20" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4" t="n">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5" t="n">
         <v>886951.530230558</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="5" t="n">
         <v>278848.682973996</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="5" t="n">
         <v>1185454.62263994</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="Z20" s="5" t="n">
         <v>-21763312.0654172</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="5" t="n">
         <v>-6122472.69977439</v>
       </c>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="5" t="n">
         <v>75610121.1592194</v>
       </c>
-      <c r="AC20" s="4" t="n">
+      <c r="AC20" s="5" t="n">
         <v>74335724.9792842</v>
       </c>
-      <c r="AD20" s="4" t="n">
+      <c r="AD20" s="5" t="n">
         <v>75163040.925769</v>
       </c>
-      <c r="AE20" s="4" t="n">
+      <c r="AE20" s="5" t="n">
         <v>18758513.5219039</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="5" t="n">
         <v>23952089.1592826</v>
       </c>
-      <c r="AG20" s="4" t="n">
+      <c r="AG20" s="5" t="n">
         <v>2568917.82773354</v>
       </c>
-      <c r="AH20" s="4" t="n">
+      <c r="AH20" s="5" t="n">
         <v>72516121.5052154</v>
       </c>
-      <c r="AI20" s="4" t="n">
+      <c r="AI20" s="5" t="n">
         <v>-82185282.6006036</v>
       </c>
-      <c r="AJ20" s="4" t="n">
+      <c r="AJ20" s="5" t="n">
         <v>-64365459.3783563</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="5" t="n">
         <v>-72086045.0802295</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="5" t="n">
         <v>-79292444.1930637</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="5" t="n">
         <v>-54718136.1973</v>
       </c>
-      <c r="AN20" s="4" t="n">
+      <c r="AN20" s="5" t="n">
         <v>-87949203.0779896</v>
       </c>
-      <c r="AO20" s="4"/>
+      <c r="AO20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5809,35 +5811,35 @@
       <c r="N21" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4" t="n">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="n">
         <v>5584775.22016619</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5846,33 +5848,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
+++ b/Output/PBL/Platform/Aircraft/DoD_Aircraft_Contracts.xlsx
@@ -217,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -259,11 +259,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
